--- a/biology/Zoologie/Conus_rosemaryae/Conus_rosemaryae.xlsx
+++ b/biology/Zoologie/Conus_rosemaryae/Conus_rosemaryae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus rosemaryae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes du Nicaragua au Panama.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente au large de la côte caraïbe du Nicaragua, du Costa Rica et du Panama. Il n'y a pas de menaces connues. Cette espèce est classée comme étant de préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente au large de la côte caraïbe du Nicaragua, du Costa Rica et du Panama. Il n'y a pas de menaces connues. Cette espèce est classée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_rosemaryae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rosemaryae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus rosemaryae a été décrite pour la première fois en 1990 par le malacologiste américain Edward James Petuch (d) dans « The Nautilus »[2],[3].
-Synonymes
-Conus (Dauciconus) rosemaryae Petuch, 1990 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus rosemaryae a été décrite pour la première fois en 1990 par le malacologiste américain Edward James Petuch (d) dans « The Nautilus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_rosemaryae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rosemaryae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) rosemaryae Petuch, 1990 · appellation alternative
 Gradiconus rosemaryae (Petuch, 1990) · non accepté</t>
         </is>
       </c>
